--- a/Performance Analysis.xlsx
+++ b/Performance Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrew\Penn\Classes\JuniorFall\CIS565\webgpu-super-resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27879A42-3507-4721-8E9A-DFBB84D3E21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00D3D1-8C6C-4AE7-8D6D-7803F00AFAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Baboon</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>3x2</t>
+  </si>
+  <si>
+    <t>4d conv</t>
   </si>
 </sst>
 </file>
@@ -351,42 +354,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>693085.39999999804</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>24142.3999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>608387.69999999495</v>
+      </c>
+      <c r="B7">
+        <v>6670.5</v>
       </c>
     </row>
   </sheetData>

--- a/Performance Analysis.xlsx
+++ b/Performance Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrew\Penn\Classes\JuniorFall\CIS565\webgpu-super-resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00D3D1-8C6C-4AE7-8D6D-7803F00AFAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E966DD93-8424-4EB5-85A5-FA66AFF66017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Baboon</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>4d conv</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>Reduce Dispatch</t>
+  </si>
+  <si>
+    <t>Layer Fusion</t>
   </si>
 </sst>
 </file>
@@ -354,46 +363,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>693085.39999999804</v>
       </c>
       <c r="B3">
         <v>24142.3999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>15593.599999997699</v>
+      </c>
+      <c r="D3">
+        <v>14849.8000000007</v>
+      </c>
+      <c r="E3">
+        <v>14746.899999998501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>608387.69999999495</v>
       </c>

--- a/Performance Analysis.xlsx
+++ b/Performance Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrew\Penn\Classes\JuniorFall\CIS565\webgpu-super-resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E966DD93-8424-4EB5-85A5-FA66AFF66017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5201E06-34DB-4DEE-8DCF-3B82DAB1C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Baboon</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Layer Fusion</t>
+  </si>
+  <si>
+    <t>Loop Optimization</t>
   </si>
 </sst>
 </file>
@@ -363,20 +366,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -392,8 +395,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>693085.39999999804</v>
       </c>
@@ -409,18 +415,21 @@
       <c r="E3">
         <v>14746.899999998501</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>12633.299999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>608387.69999999495</v>
       </c>

--- a/Performance Analysis.xlsx
+++ b/Performance Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrew\Penn\Classes\JuniorFall\CIS565\webgpu-super-resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5201E06-34DB-4DEE-8DCF-3B82DAB1C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3BEFC-3D2A-427A-9757-808CB9776C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Baboon</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Loop Optimization</t>
+  </si>
+  <si>
+    <t>Explicit Layout</t>
+  </si>
+  <si>
+    <t>Implicit Layout</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -366,75 +378,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>693085.39999999804</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>24142.3999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15593.599999997699</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14849.8000000007</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14746.899999998501</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>12633.299999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>608387.69999999495</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6670.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>27.4</v>
+      </c>
+      <c r="C13">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>8888.9</v>
+      </c>
+      <c r="C14">
+        <v>15541.7</v>
       </c>
     </row>
   </sheetData>
